--- a/docs/data/table.xlsx
+++ b/docs/data/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudolphc/Desktop/Git_Projects/sluseallab/commuting_review/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cortrudolph/Dropbox/Research/Current Research/OPR Commuting Stress Systematic Review &amp; MA/Commuting Stress/Submissions/OPR Special Issue/Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B0D96B-A096-AA48-92F9-BDE10FEEBB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B01333-9C0B-0F4C-B9F2-D9A45651D8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="36860" windowHeight="19900" xr2:uid="{19A628FB-309E-B243-8233-CFD9A8E8AA15}"/>
+    <workbookView xWindow="30940" yWindow="-9640" windowWidth="46640" windowHeight="25760" xr2:uid="{19A628FB-309E-B243-8233-CFD9A8E8AA15}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -4339,13 +4339,13 @@
     <t>Subjective</t>
   </si>
   <si>
-    <t>Objective Commuting Demands</t>
-  </si>
-  <si>
-    <t>Objective Commuting Demands, Subjective Commuting Appraisals</t>
-  </si>
-  <si>
-    <t>Subjective Commuting Appraisals</t>
+    <t>Commuting Demands</t>
+  </si>
+  <si>
+    <t>Commuting Demands, Commuting Appraisals</t>
+  </si>
+  <si>
+    <t>Commuting Appraisals</t>
   </si>
 </sst>
 </file>
@@ -4776,8 +4776,8 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104:C110"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/docs/data/table.xlsx
+++ b/docs/data/table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cortrudolph/Dropbox/Research/Current Research/OPR Commuting Stress Systematic Review &amp; MA/Commuting Stress/Submissions/OPR Special Issue/Website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenmurphy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B01333-9C0B-0F4C-B9F2-D9A45651D8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29E1D466-2431-3A4E-A40E-E63EC7FAA236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30940" yWindow="-9640" windowWidth="46640" windowHeight="25760" xr2:uid="{19A628FB-309E-B243-8233-CFD9A8E8AA15}"/>
+    <workbookView xWindow="-660" yWindow="660" windowWidth="28800" windowHeight="16300" xr2:uid="{19A628FB-309E-B243-8233-CFD9A8E8AA15}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$A$1:$L$110</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="746">
   <si>
     <t xml:space="preserve">Operationalization of "Commuting" </t>
   </si>
@@ -1651,9 +1651,6 @@
     <t>Commute time; Congestion level</t>
   </si>
   <si>
-    <t>Commute distnace; Commute choice; Commute variability</t>
-  </si>
-  <si>
     <t>Commuting time; Commuting mode</t>
   </si>
   <si>
@@ -4346,6 +4343,18 @@
   </si>
   <si>
     <t>Commuting Appraisals</t>
+  </si>
+  <si>
+    <t>Commute distance; Commute choice; Commute variability</t>
+  </si>
+  <si>
+    <t>Commuting Demands, Commuting Appraisals, Commuting Resources</t>
+  </si>
+  <si>
+    <t>Commuting Demands, Commuting Resources</t>
+  </si>
+  <si>
+    <t>Commuting Appraisals, Commuting Resources</t>
   </si>
 </sst>
 </file>
@@ -4776,8 +4785,8 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4797,7 +4806,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>436</v>
@@ -4841,19 +4850,19 @@
         <v>278</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>110</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
@@ -4865,7 +4874,7 @@
         <v>268</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>308</v>
@@ -4879,34 +4888,34 @@
         <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>445</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4917,13 +4926,13 @@
         <v>424</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>204</v>
@@ -4935,16 +4944,16 @@
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4955,13 +4964,13 @@
         <v>354</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -4993,13 +5002,13 @@
         <v>425</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>205</v>
@@ -5011,13 +5020,13 @@
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>206</v>
@@ -5031,19 +5040,19 @@
         <v>276</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>302</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
@@ -5055,7 +5064,7 @@
         <v>304</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>305</v>
@@ -5069,34 +5078,34 @@
         <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5107,19 +5116,19 @@
         <v>208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
@@ -5128,13 +5137,13 @@
         <v>303</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>666</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5145,31 +5154,31 @@
         <v>209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>446</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>210</v>
@@ -5183,13 +5192,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>386</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
@@ -5221,13 +5230,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
@@ -5259,13 +5268,13 @@
         <v>358</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>359</v>
@@ -5283,7 +5292,7 @@
         <v>32</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>33</v>
@@ -5297,13 +5306,13 @@
         <v>361</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>35</v>
@@ -5335,13 +5344,13 @@
         <v>363</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>364</v>
@@ -5359,7 +5368,7 @@
         <v>41</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>42</v>
@@ -5373,13 +5382,13 @@
         <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>44</v>
@@ -5391,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>46</v>
@@ -5411,13 +5420,13 @@
         <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>49</v>
@@ -5449,13 +5458,13 @@
         <v>369</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>367</v>
@@ -5473,7 +5482,7 @@
         <v>55</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>56</v>
@@ -5487,13 +5496,13 @@
         <v>370</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>372</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>373</v>
@@ -5505,7 +5514,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>257</v>
@@ -5525,13 +5534,13 @@
         <v>375</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>59</v>
@@ -5563,31 +5572,31 @@
         <v>426</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>211</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>212</v>
@@ -5601,34 +5610,34 @@
         <v>213</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>214</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="L22" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5639,19 +5648,19 @@
         <v>430</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>12</v>
@@ -5663,7 +5672,7 @@
         <v>290</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>291</v>
@@ -5674,37 +5683,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>706</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>192</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5715,13 +5724,13 @@
         <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>64</v>
@@ -5753,13 +5762,13 @@
         <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>70</v>
@@ -5777,7 +5786,7 @@
         <v>380</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>381</v>
@@ -5791,13 +5800,13 @@
         <v>382</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>383</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>71</v>
@@ -5809,13 +5818,13 @@
         <v>12</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>385</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>384</v>
@@ -5829,13 +5838,13 @@
         <v>281</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>328</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>329</v>
@@ -5867,13 +5876,13 @@
         <v>387</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>73</v>
@@ -5891,7 +5900,7 @@
         <v>76</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>388</v>
@@ -5905,31 +5914,31 @@
         <v>215</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>216</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>217</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="K30" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>218</v>
@@ -5943,13 +5952,13 @@
         <v>219</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>439</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>44</v>
@@ -5961,13 +5970,13 @@
         <v>12</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>220</v>
@@ -5981,13 +5990,13 @@
         <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>389</v>
@@ -6019,16 +6028,16 @@
         <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>83</v>
@@ -6057,19 +6066,19 @@
         <v>433</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>311</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>12</v>
@@ -6081,7 +6090,7 @@
         <v>313</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>314</v>
@@ -6095,13 +6104,13 @@
         <v>394</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>395</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>86</v>
@@ -6119,7 +6128,7 @@
         <v>88</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>397</v>
@@ -6133,19 +6142,19 @@
         <v>398</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>12</v>
@@ -6154,10 +6163,10 @@
         <v>90</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>91</v>
@@ -6171,19 +6180,19 @@
         <v>434</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>197</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>12</v>
@@ -6195,7 +6204,7 @@
         <v>316</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>317</v>
@@ -6209,13 +6218,13 @@
         <v>92</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>400</v>
@@ -6233,7 +6242,7 @@
         <v>94</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>95</v>
@@ -6247,19 +6256,19 @@
         <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>12</v>
@@ -6268,10 +6277,10 @@
         <v>97</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>98</v>
@@ -6285,13 +6294,13 @@
         <v>233</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>99</v>
@@ -6303,13 +6312,13 @@
         <v>12</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>101</v>
@@ -6323,13 +6332,13 @@
         <v>429</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>285</v>
@@ -6347,7 +6356,7 @@
         <v>287</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>288</v>
@@ -6361,13 +6370,13 @@
         <v>284</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>338</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>342</v>
@@ -6399,31 +6408,31 @@
         <v>401</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>102</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>103</v>
@@ -6437,13 +6446,13 @@
         <v>432</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>298</v>
@@ -6455,13 +6464,13 @@
         <v>12</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>300</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>301</v>
@@ -6475,19 +6484,19 @@
         <v>402</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>437</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>12</v>
@@ -6499,10 +6508,10 @@
         <v>106</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6513,13 +6522,13 @@
         <v>435</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>318</v>
@@ -6537,7 +6546,7 @@
         <v>321</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>322</v>
@@ -6551,13 +6560,13 @@
         <v>107</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>438</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>64</v>
@@ -6569,16 +6578,16 @@
         <v>12</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6589,19 +6598,19 @@
         <v>109</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>110</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>12</v>
@@ -6613,10 +6622,10 @@
         <v>112</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6627,13 +6636,13 @@
         <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>114</v>
@@ -6651,7 +6660,7 @@
         <v>117</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>118</v>
@@ -6665,13 +6674,13 @@
         <v>234</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>350</v>
@@ -6689,10 +6698,10 @@
         <v>120</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6703,13 +6712,13 @@
         <v>121</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>123</v>
@@ -6727,7 +6736,7 @@
         <v>125</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>126</v>
@@ -6741,13 +6750,13 @@
         <v>280</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>323</v>
@@ -6765,7 +6774,7 @@
         <v>326</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>327</v>
@@ -6779,13 +6788,13 @@
         <v>235</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>127</v>
@@ -6797,13 +6806,13 @@
         <v>129</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>258</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>130</v>
@@ -6817,13 +6826,13 @@
         <v>221</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>447</v>
+        <v>742</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>222</v>
@@ -6835,13 +6844,13 @@
         <v>12</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>223</v>
@@ -6855,16 +6864,16 @@
         <v>224</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>108</v>
@@ -6873,13 +6882,13 @@
         <v>12</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J55" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>225</v>
@@ -6893,13 +6902,13 @@
         <v>403</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>439</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>237</v>
@@ -6911,13 +6920,13 @@
         <v>12</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>131</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>132</v>
@@ -6931,16 +6940,16 @@
         <v>133</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>440</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>249</v>
@@ -6949,13 +6958,13 @@
         <v>12</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>259</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>134</v>
@@ -6969,34 +6978,34 @@
         <v>226</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="K58" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7007,13 +7016,13 @@
         <v>135</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>136</v>
@@ -7031,10 +7040,10 @@
         <v>106</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7045,13 +7054,13 @@
         <v>404</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>238</v>
@@ -7063,16 +7072,16 @@
         <v>12</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>260</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7083,13 +7092,13 @@
         <v>140</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>437</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>141</v>
@@ -7107,10 +7116,10 @@
         <v>144</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7121,13 +7130,13 @@
         <v>283</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>338</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>339</v>
@@ -7139,7 +7148,7 @@
         <v>12</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>309</v>
@@ -7159,13 +7168,13 @@
         <v>145</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>441</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>146</v>
@@ -7177,13 +7186,13 @@
         <v>12</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>353</v>
@@ -7197,31 +7206,31 @@
         <v>279</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>309</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>310</v>
@@ -7235,13 +7244,13 @@
         <v>405</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>110</v>
@@ -7256,13 +7265,13 @@
         <v>150</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7273,13 +7282,13 @@
         <v>406</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>442</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>151</v>
@@ -7297,10 +7306,10 @@
         <v>154</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7311,13 +7320,13 @@
         <v>155</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>156</v>
@@ -7335,7 +7344,7 @@
         <v>159</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>160</v>
@@ -7349,13 +7358,13 @@
         <v>407</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>161</v>
@@ -7373,7 +7382,7 @@
         <v>163</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>164</v>
@@ -7387,31 +7396,31 @@
         <v>277</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>306</v>
@@ -7425,13 +7434,13 @@
         <v>408</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>60</v>
@@ -7449,10 +7458,10 @@
         <v>167</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7463,13 +7472,13 @@
         <v>168</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>169</v>
@@ -7487,10 +7496,10 @@
         <v>172</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7501,13 +7510,13 @@
         <v>173</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>239</v>
@@ -7519,13 +7528,13 @@
         <v>12</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>174</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>351</v>
@@ -7539,13 +7548,13 @@
         <v>409</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>437</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>240</v>
@@ -7557,16 +7566,16 @@
         <v>12</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7577,34 +7586,34 @@
         <v>410</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7615,16 +7624,16 @@
         <v>177</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>108</v>
@@ -7633,16 +7642,16 @@
         <v>12</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>261</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7653,31 +7662,31 @@
         <v>411</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>262</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>271</v>
@@ -7688,37 +7697,37 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="J77" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="J77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7729,31 +7738,31 @@
         <v>413</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>691</v>
-      </c>
       <c r="K78" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>180</v>
@@ -7767,16 +7776,16 @@
         <v>412</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>439</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>178</v>
@@ -7785,13 +7794,13 @@
         <v>12</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="K79" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>179</v>
@@ -7802,19 +7811,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>439</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>108</v>
@@ -7823,16 +7832,16 @@
         <v>12</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J80" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7843,34 +7852,34 @@
         <v>427</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7881,13 +7890,13 @@
         <v>414</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>240</v>
@@ -7899,16 +7908,16 @@
         <v>12</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>263</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7916,16 +7925,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>181</v>
@@ -7937,13 +7946,13 @@
         <v>12</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>182</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>272</v>
@@ -7957,16 +7966,16 @@
         <v>227</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>108</v>
@@ -7975,16 +7984,16 @@
         <v>12</v>
       </c>
       <c r="I84" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>693</v>
-      </c>
       <c r="K84" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7995,13 +8004,13 @@
         <v>415</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>242</v>
@@ -8013,13 +8022,13 @@
         <v>12</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>264</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>273</v>
@@ -8030,37 +8039,37 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>265</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8068,22 +8077,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>183</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>12</v>
@@ -8092,13 +8101,13 @@
         <v>176</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8109,13 +8118,13 @@
         <v>282</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>334</v>
@@ -8133,7 +8142,7 @@
         <v>337</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>352</v>
@@ -8147,31 +8156,31 @@
         <v>416</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G89" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>672</v>
-      </c>
       <c r="K89" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>185</v>
@@ -8185,13 +8194,13 @@
         <v>431</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>437</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>292</v>
@@ -8209,7 +8218,7 @@
         <v>295</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>296</v>
@@ -8223,13 +8232,13 @@
         <v>417</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>243</v>
@@ -8241,13 +8250,13 @@
         <v>12</v>
       </c>
       <c r="I91" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="J91" s="1" t="s">
-        <v>695</v>
-      </c>
       <c r="K91" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>186</v>
@@ -8261,13 +8270,13 @@
         <v>418</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>244</v>
@@ -8279,16 +8288,16 @@
         <v>12</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>187</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8299,13 +8308,13 @@
         <v>188</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>245</v>
@@ -8317,16 +8326,16 @@
         <v>12</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>266</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8337,34 +8346,34 @@
         <v>228</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8375,34 +8384,34 @@
         <v>189</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>190</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>267</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8413,34 +8422,34 @@
         <v>428</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>439</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G96" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>700</v>
-      </c>
       <c r="K96" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8448,37 +8457,37 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="H97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8489,31 +8498,31 @@
         <v>191</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>439</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>192</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>274</v>
@@ -8527,34 +8536,34 @@
         <v>419</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>268</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8565,31 +8574,31 @@
         <v>420</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>246</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>275</v>
@@ -8603,16 +8612,16 @@
         <v>229</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>108</v>
@@ -8621,13 +8630,13 @@
         <v>12</v>
       </c>
       <c r="I101" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>675</v>
-      </c>
       <c r="K101" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>230</v>
@@ -8641,31 +8650,31 @@
         <v>193</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>437</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>194</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>348</v>
@@ -8679,34 +8688,34 @@
         <v>231</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>232</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>192</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8717,31 +8726,31 @@
         <v>421</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F104" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" s="1" t="s">
+      <c r="J104" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="J104" s="1" t="s">
-        <v>679</v>
-      </c>
       <c r="K104" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>195</v>
@@ -8752,37 +8761,37 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>290</v>
       </c>
       <c r="K105" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="L105" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8793,19 +8802,19 @@
         <v>196</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>197</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>20</v>
@@ -8817,10 +8826,10 @@
         <v>85</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8831,34 +8840,34 @@
         <v>198</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>190</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>199</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8869,34 +8878,34 @@
         <v>422</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>200</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8907,19 +8916,19 @@
         <v>423</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>444</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>12</v>
@@ -8931,10 +8940,10 @@
         <v>270</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -8945,38 +8954,38 @@
         <v>201</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>442</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>247</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{1C2F1BF8-1BD6-7647-912D-A449601E94E5}">
+  <autoFilter ref="A1:L110" xr:uid="{1C2F1BF8-1BD6-7647-912D-A449601E94E5}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L110">
       <sortCondition ref="A1:A110"/>
     </sortState>
